--- a/shoulder/original data/Extraction sheet-SM.xlsx
+++ b/shoulder/original data/Extraction sheet-SM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarvenazmohabbati/Desktop/bahmani-sysrev/shoulder/original data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86765244-B450-944A-BCB7-515B82586426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111943BD-8BC4-E041-90F4-799C33D3D77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="263">
   <si>
     <t xml:space="preserve"> First Author et al. (year) [only last name]
 Like Li et al. (2018)</t>
@@ -1072,6 +1072,65 @@
       <t>Advanced intelligent Clear-IQ Engine (AiCE)</t>
     </r>
   </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>humerus and joint bones</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">combination of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>U-Net-based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>AlexNet-based</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> models</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AlexNet 92.5%
+VGG16 90.9%
+</t>
+  </si>
+  <si>
+    <t>0.95 ± 0.03</t>
+  </si>
+  <si>
+    <t>0.95 ± 0.02</t>
+  </si>
 </sst>
 </file>
 
@@ -1330,7 +1389,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,6 +1424,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1453,7 +1518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1678,6 +1743,12 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="37" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -47997,7 +48068,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="16"/>
@@ -48416,9 +48487,13 @@
       <c r="AC9" s="60"/>
       <c r="AD9" s="57"/>
     </row>
-    <row r="10" spans="1:42" s="47" customFormat="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+    <row r="10" spans="1:42" s="47" customFormat="1" ht="17">
+      <c r="A10" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="46">
+        <v>3087</v>
+      </c>
       <c r="C10" s="46"/>
       <c r="E10" s="46"/>
       <c r="F10" s="70"/>
@@ -48426,17 +48501,38 @@
       <c r="R10" s="58"/>
       <c r="AD10" s="58"/>
     </row>
-    <row r="11" spans="1:42" s="49" customFormat="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="51"/>
+    <row r="11" spans="1:42" s="49" customFormat="1" ht="95">
+      <c r="A11" s="48" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="51">
+        <v>800</v>
+      </c>
       <c r="C11" s="48"/>
       <c r="D11" s="47"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="54"/>
+      <c r="E11" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>259</v>
+      </c>
       <c r="H11" s="50"/>
+      <c r="K11" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="M11" s="75" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q11" s="80" t="s">
+        <v>260</v>
+      </c>
       <c r="R11" s="57"/>
-      <c r="W11" s="68"/>
-      <c r="Y11" s="68"/>
+      <c r="W11" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y11" s="75" t="s">
+        <v>262</v>
+      </c>
       <c r="Z11" s="60"/>
       <c r="AA11" s="68"/>
       <c r="AB11" s="68"/>
